--- a/docs/timesheet_Dwiezel_VanEeckhout.xlsx
+++ b/docs/timesheet_Dwiezel_VanEeckhout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,9 +83,6 @@
     <t>DEP</t>
   </si>
   <si>
-    <t>Afgeven werkstuk</t>
-  </si>
-  <si>
     <t>code jonas overzetten, Post-type recepten aanmaken + weergeven</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>mappenstructuur aanmaken, github maken, uploaden</t>
+  </si>
+  <si>
+    <t>Dossier deployment guide toevoegen + github</t>
+  </si>
+  <si>
+    <t>Examen</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,8 +545,8 @@
         <v>7</v>
       </c>
       <c r="H1" s="2">
-        <f>SUM(E2:E31)</f>
-        <v>51.5</v>
+        <f>SUM(E2:E32)</f>
+        <v>51.75</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -693,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -710,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
@@ -727,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -744,99 +747,116 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>42884</v>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42882</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>42887</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
